--- a/products_baza.xlsx
+++ b/products_baza.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>90</t>
-  </si>
-  <si>
-    <t>1 kg kg</t>
   </si>
   <si>
     <t>9000</t>
@@ -476,7 +473,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,10 +681,10 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
@@ -704,19 +701,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>

--- a/products_baza.xlsx
+++ b/products_baza.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -760,6 +760,156 @@
         <v>2034000</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Behi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1 kg kg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>25/06/2023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fanta</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>207</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.5 litr</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>26/06/2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2484000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Behi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1 kg kg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25/06/2023</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fanta</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.5 litr</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>26/06/2023</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2520000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
